--- a/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
@@ -450,9 +450,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -475,6 +475,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -483,6 +505,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -491,7 +559,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,99 +604,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,14 +614,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,55 +646,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,61 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,61 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,11 +870,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,7 +904,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,30 +916,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +935,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -967,6 +958,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,133 +987,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:J20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1490,14 +1490,14 @@
     <col min="2" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:10">
+    <row r="1" ht="16.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
@@ -476,14 +476,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,9 +526,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,6 +580,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -522,98 +613,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,187 +646,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,17 +870,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,22 +894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,9 +926,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,7 +963,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,133 +987,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1494,7 +1494,7 @@
     <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="52.875" customWidth="1"/>
+    <col min="10" max="10" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:10">

--- a/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
@@ -68,204 +68,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">true </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>读取
-false 或者空 跳过
-end 结束 后续部分不再读取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">true </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>读取
-false 或者空 跳过
-end 结束 后续部分不再读取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">true </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>读取
-false 或者空 跳过
-end 结束 后续部分不再读取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">true </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>读取
-false 或者空 跳过
-end 结束 后续部分不再读取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">true </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>读取
-false 或者空 跳过
-end 结束 后续部分不再读取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">true </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>读取
-false 或者空 跳过
-end 结束 后续部分不再读取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">true </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>读取
-false 或者空 跳过
-end 结束 后续部分不再读取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">true </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>读取
-false 或者空 跳过
-end 结束 后续部分不再读取</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>key</t>
   </si>
@@ -297,6 +105,12 @@
     <t>attribute</t>
   </si>
   <si>
+    <t>skillPoollType</t>
+  </si>
+  <si>
+    <t>skillRateHit</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -346,6 +160,9 @@
   </si>
   <si>
     <t>基础属性</t>
+  </si>
+  <si>
+    <t>领悟技能命中概率</t>
   </si>
   <si>
     <t>remark</t>
@@ -369,6 +186,9 @@
     <t>信任度降低至0时,宠物冬眠,需要唤醒</t>
   </si>
   <si>
+    <t>服务器从技能池记录一个随机池id</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -384,25 +204,34 @@
     <t>[0,1,2]</t>
   </si>
   <si>
+    <t>{101:15,102:15,103:15,104:15,105:15,106:15}</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>粉粉兔</t>
+  </si>
+  <si>
+    <t>粉粉的小兔子很可爱哦!</t>
+  </si>
+  <si>
+    <t>兔王</t>
+  </si>
+  <si>
+    <t>小白兔变异而来,可以骑着的巨型兔子.</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
     <t>{101:100,102:100,103:100,104:100,105:100,106:100}</t>
   </si>
   <si>
-    <t>粉粉兔</t>
-  </si>
-  <si>
-    <t>粉粉的小兔子很可爱哦!</t>
-  </si>
-  <si>
-    <t>兔王</t>
-  </si>
-  <si>
-    <t>小白兔变异而来,可以骑着的巨型兔子.</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[0]</t>
+    <t>[3,4]</t>
   </si>
   <si>
     <t>粉粉兔王</t>
@@ -411,7 +240,10 @@
     <t>小粉兔变异而来,可以骑着的巨型粉兔子.</t>
   </si>
   <si>
-    <t>小狗</t>
+    <t>[2,3,4,5]</t>
+  </si>
+  <si>
+    <t>小花狗</t>
   </si>
   <si>
     <t>黑白斑点小狗,谁看了都想养一只</t>
@@ -476,19 +308,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -497,14 +338,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,46 +428,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -567,53 +446,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +463,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,187 +478,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,6 +729,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -909,6 +768,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -934,39 +817,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,147 +837,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1479,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1491,13 +1347,15 @@
     <col min="4" max="4" width="37.5" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="56.25" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" ht="16.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,72 +1386,90 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:10">
+    <row r="2" ht="16.5" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:10">
+    <row r="3" ht="16.5" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:10">
+    <row r="4" ht="33" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1601,72 +1477,82 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" ht="66" spans="1:10">
+    <row r="5" ht="66" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1"/>
     </row>
-    <row r="6" ht="16.5" spans="1:10">
+    <row r="6" ht="16.5" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>60001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>100</v>
@@ -1678,27 +1564,33 @@
         <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3300</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:10">
+    <row r="7" ht="16.5" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>60002</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>100</v>
@@ -1710,27 +1602,33 @@
         <v>60</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3000</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:10">
+    <row r="8" ht="16.5" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>60003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2">
         <v>100</v>
@@ -1742,27 +1640,33 @@
         <v>60</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2700</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:10">
+    <row r="9" ht="16.5" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
         <v>60004</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2">
         <v>100</v>
@@ -1774,199 +1678,241 @@
         <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2700</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" ht="16.5" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3">
         <v>60005</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>60</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>60006</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
+      <c r="H11" s="3">
+        <v>100</v>
+      </c>
+      <c r="I11" s="3">
+        <v>60</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:12">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2">
+      <c r="B12" s="3">
+        <v>60007</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I12" s="3">
         <v>60</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>38</v>
+      <c r="J12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2700</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2">
-        <v>60006</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="13" ht="16.5" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4">
+        <v>60008</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <v>100</v>
+      </c>
+      <c r="I13" s="4">
+        <v>60</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4">
+        <v>60009</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="K14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:12">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4">
+        <v>60010</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4">
         <v>100</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H15" s="4">
         <v>100</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I15" s="4">
         <v>60</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2">
-        <v>60007</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="2">
-        <v>100</v>
-      </c>
-      <c r="H12" s="2">
-        <v>100</v>
-      </c>
-      <c r="I12" s="2">
-        <v>60</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2">
-        <v>60008</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2">
-        <v>100</v>
-      </c>
-      <c r="H13" s="2">
-        <v>100</v>
-      </c>
-      <c r="I13" s="2">
-        <v>60</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:10">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2">
-        <v>60009</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="2">
-        <v>100</v>
-      </c>
-      <c r="H14" s="2">
-        <v>100</v>
-      </c>
-      <c r="I14" s="2">
-        <v>60</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2">
-        <v>60010</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="2">
-        <v>100</v>
-      </c>
-      <c r="H15" s="2">
-        <v>100</v>
-      </c>
-      <c r="I15" s="2">
-        <v>60</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>38</v>
+      <c r="L15" s="4">
+        <v>2700</v>
       </c>
     </row>
   </sheetData>

--- a/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>key</t>
   </si>
@@ -96,6 +96,12 @@
     <t>trainLimit</t>
   </si>
   <si>
+    <t>hungryLimit</t>
+  </si>
+  <si>
+    <t>restoreInterval</t>
+  </si>
+  <si>
     <t>trustLimit</t>
   </si>
   <si>
@@ -151,6 +157,12 @@
   </si>
   <si>
     <t>可以培养上限</t>
+  </si>
+  <si>
+    <t>饥饿值上限</t>
+  </si>
+  <si>
+    <t>恢复间隔.饥饿值,信任度共用</t>
   </si>
   <si>
     <t>信任度上限</t>
@@ -181,6 +193,12 @@
   </si>
   <si>
     <t>可食用PP果数量</t>
+  </si>
+  <si>
+    <t>饥饿值越低,信任度下降越慢,反之越快,达到上限时,加速信任度降低</t>
+  </si>
+  <si>
+    <t>间隔时间:分(M)</t>
   </si>
   <si>
     <t>信任度降低至0时,宠物冬眠,需要唤醒</t>
@@ -281,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -309,6 +327,51 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +385,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -331,65 +431,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -406,30 +447,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,7 +463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,25 +514,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,91 +634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,48 +652,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -671,12 +695,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,18 +740,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,23 +782,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,13 +821,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,145 +843,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1335,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1348,14 +1366,16 @@
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:12">
+    <row r="1" ht="33" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,84 +1412,102 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:12">
+    <row r="2" ht="16.5" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:12">
+    <row r="3" ht="16.5" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:12">
+    <row r="4" ht="33" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1477,82 +1515,94 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" ht="66" spans="1:12">
+    <row r="5" ht="66" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" ht="16.5" spans="1:12">
+    <row r="6" ht="16.5" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
-        <v>60001</v>
+        <v>600001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
         <v>100</v>
@@ -1561,357 +1611,417 @@
         <v>100</v>
       </c>
       <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2">
         <v>60</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:14">
+      <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="2">
+      <c r="B7" s="2">
+        <v>600002</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>600003</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2">
+        <v>100</v>
+      </c>
+      <c r="K8" s="2">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>600004</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>60</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3">
+        <v>600005</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2">
-        <v>60002</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2">
-        <v>100</v>
-      </c>
-      <c r="H7" s="2">
-        <v>100</v>
-      </c>
-      <c r="I7" s="2">
+    <row r="11" ht="16.5" spans="1:14">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3">
+        <v>600006</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
+      <c r="H11" s="3">
+        <v>100</v>
+      </c>
+      <c r="I11" s="3">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3">
+        <v>100</v>
+      </c>
+      <c r="K11" s="3">
         <v>60</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="L11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:14">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="2">
-        <v>3000</v>
+      <c r="B12" s="3">
+        <v>600007</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>60</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2700</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2">
-        <v>60003</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="13" ht="16.5" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4">
+        <v>600008</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G13" s="4">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <v>100</v>
+      </c>
+      <c r="I13" s="4">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4">
+        <v>100</v>
+      </c>
+      <c r="K13" s="4">
+        <v>60</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="M13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="2">
-        <v>100</v>
-      </c>
-      <c r="H8" s="2">
-        <v>100</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="N13" s="4">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4">
+        <v>600009</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+      <c r="K14" s="4">
         <v>60</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="L14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="4">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2">
-        <v>60004</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2">
-        <v>100</v>
-      </c>
-      <c r="H9" s="2">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2">
+    <row r="15" ht="16.5" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4">
+        <v>600010</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4">
+        <v>100</v>
+      </c>
+      <c r="I15" s="4">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4">
+        <v>100</v>
+      </c>
+      <c r="K15" s="4">
         <v>60</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3">
-        <v>60005</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="M15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3">
-        <v>60006</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="3">
-        <v>100</v>
-      </c>
-      <c r="H11" s="3">
-        <v>100</v>
-      </c>
-      <c r="I11" s="3">
-        <v>60</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3">
-        <v>60007</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>60</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:12">
-      <c r="A13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="4">
-        <v>60008</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="4">
-        <v>100</v>
-      </c>
-      <c r="H13" s="4">
-        <v>100</v>
-      </c>
-      <c r="I13" s="4">
-        <v>60</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="4">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:12">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4">
-        <v>60009</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="4">
-        <v>100</v>
-      </c>
-      <c r="H14" s="4">
-        <v>100</v>
-      </c>
-      <c r="I14" s="4">
-        <v>60</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="4">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:12">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="4">
-        <v>60010</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="4">
-        <v>100</v>
-      </c>
-      <c r="H15" s="4">
-        <v>100</v>
-      </c>
-      <c r="I15" s="4">
-        <v>60</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="N15" s="4">
         <v>2700</v>
       </c>
     </row>

--- a/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
@@ -222,7 +222,7 @@
     <t>[0,1,2]</t>
   </si>
   <si>
-    <t>{101:15,102:15,103:15,104:15,105:15,106:15}</t>
+    <t>{101:15,102:15,103:15,104:15,105:15,106:15,107:15}</t>
   </si>
   <si>
     <t>[1]</t>
@@ -246,7 +246,7 @@
     <t>[0]</t>
   </si>
   <si>
-    <t>{101:100,102:100,103:100,104:100,105:100,106:100}</t>
+    <t>{101:100,102:100,103:100,104:100,105:100,106:100,107:15}</t>
   </si>
   <si>
     <t>[3,4]</t>
@@ -299,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -325,6 +325,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -334,6 +389,66 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,66 +463,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -415,61 +470,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -514,19 +514,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,49 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,109 +646,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,11 +740,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,33 +786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -835,6 +815,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -843,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,133 +855,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1355,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1369,13 +1369,13 @@
     <col min="8" max="8" width="19.875" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="60.25" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:14">
+    <row r="1" ht="16.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物基础.xlsx
@@ -300,9 +300,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -323,6 +323,30 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -333,19 +357,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,83 +439,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +456,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -455,18 +470,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -474,12 +480,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -520,133 +520,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,43 +688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,15 +747,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -767,6 +758,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,17 +792,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,17 +835,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -843,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,133 +855,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
